--- a/Documentation/Risk assessment.xlsx
+++ b/Documentation/Risk assessment.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Google Drive\Documents\COE 1186\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdg10\Desktop\North-Shore-Extension-master\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Project RA" sheetId="1" r:id="rId1"/>
+    <sheet name="CTC Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Train Controller" sheetId="3" r:id="rId3"/>
+    <sheet name="Train Model" sheetId="4" r:id="rId4"/>
+    <sheet name="Track Contoller" sheetId="5" r:id="rId5"/>
+    <sheet name="Track Model" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Severity</t>
   </si>
@@ -156,12 +158,15 @@
   </si>
   <si>
     <t>Appropriate time from other activities to catch up and maybe redistribute tasks if the group deems it necessary</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,19 +489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -524,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -538,7 +543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -552,7 +557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -566,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -580,7 +585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -594,7 +599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:4" ht="45.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,24 +609,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -635,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -649,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -663,7 +668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -677,7 +682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -691,7 +696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -705,7 +710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -719,7 +724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -733,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -747,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -772,7 +777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,7 +789,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Risk assessment.xlsx
+++ b/Documentation/Risk assessment.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdg10\Desktop\North-Shore-Extension-master\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project RA" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Track Contoller" sheetId="5" r:id="rId5"/>
     <sheet name="Track Model" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Severity</t>
   </si>
@@ -160,13 +155,73 @@
     <t>Appropriate time from other activities to catch up and maybe redistribute tasks if the group deems it necessary</t>
   </si>
   <si>
-    <t>T</t>
+    <t>Jeff Deely's Risk Table</t>
+  </si>
+  <si>
+    <t>Failure to Complete Task on time</t>
+  </si>
+  <si>
+    <t>low to severe depending on which task and how late it is in the semester</t>
+  </si>
+  <si>
+    <t>Make sure that tasks are completed two weeks before any due date</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Back up all code files on a second hardrive, Back up all files on github</t>
+  </si>
+  <si>
+    <t>Power Outage when working</t>
+  </si>
+  <si>
+    <t>Computer Breakdown/ Loss of all files in memory</t>
+  </si>
+  <si>
+    <t>Save files often when working on them</t>
+  </si>
+  <si>
+    <t>Personal Emergancy</t>
+  </si>
+  <si>
+    <t>If possible continue to work on project, if not module will have to go to another person in the group</t>
+  </si>
+  <si>
+    <t>Communiccation failure between Track Controller and other Modules</t>
+  </si>
+  <si>
+    <t>Meet regularly and make sure that everyone knows what needs to be sent and in what form it should be sent</t>
+  </si>
+  <si>
+    <t>Accidentally Overwrite File on Github with previous iteration</t>
+  </si>
+  <si>
+    <t>Keep local, well maintained files updated with most recent work</t>
+  </si>
+  <si>
+    <t>PLC code cannot be found</t>
+  </si>
+  <si>
+    <t>Make sure that all PLC code is save in the modules folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low  </t>
+  </si>
+  <si>
+    <t>Come into class an hour earlier to make sure that everything displays properly</t>
+  </si>
+  <si>
+    <t>Projector Failure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,15 +852,149 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1007,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Risk assessment.xlsx
+++ b/Documentation/Risk assessment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project RA" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Severity</t>
   </si>
@@ -216,12 +221,54 @@
   </si>
   <si>
     <t>Projector Failure</t>
+  </si>
+  <si>
+    <t>Schedule more time to work on module than expected</t>
+  </si>
+  <si>
+    <t>Computer crash, losing files</t>
+  </si>
+  <si>
+    <t>Back up all code to GitHub to ensure that the files still exist</t>
+  </si>
+  <si>
+    <t>Computer loses power while working</t>
+  </si>
+  <si>
+    <t>Save files often to both my computer and the team GitHub</t>
+  </si>
+  <si>
+    <t>Withdraw from class</t>
+  </si>
+  <si>
+    <t>Spencer Worms's Risk Table</t>
+  </si>
+  <si>
+    <t>Work already done on the module will be given to the group and they will have to work on it</t>
+  </si>
+  <si>
+    <t>Personal emergency</t>
+  </si>
+  <si>
+    <t>Work with group to determine if I can work on my module still, or get someone else to help work on it</t>
+  </si>
+  <si>
+    <t>Communication failure with the other modules</t>
+  </si>
+  <si>
+    <t>Work closely with the other team members to ensure good communication and complete work eariler to account of time to fix the issue</t>
+  </si>
+  <si>
+    <t>Have issues projecting my modules when presenting</t>
+  </si>
+  <si>
+    <t>Test the computer before hand and have backup on a flash drive to give to someone else to present on their computer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -247,11 +294,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -261,6 +332,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,15 +622,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +747,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -842,7 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -854,16 +933,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,14 +1083,136 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>